--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
@@ -153,10 +153,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="u5qbzgff" xfId="1"/>
-    <cellStyle name="u5qbzgff_Alternate" xfId="2"/>
-    <cellStyle name="3uefheal" xfId="3"/>
-    <cellStyle name="3uefheal_Alternate" xfId="4"/>
+    <cellStyle name="c1msesoa" xfId="1"/>
+    <cellStyle name="c1msesoa_Alternate" xfId="2"/>
+    <cellStyle name="0movqnq3" xfId="3"/>
+    <cellStyle name="0movqnq3_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
+++ b/src/samples/iXlsxWriter.ConsoleAppCore/Output/Sample11/Sample-11.xlsx
@@ -153,10 +153,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="c1msesoa" xfId="1"/>
-    <cellStyle name="c1msesoa_Alternate" xfId="2"/>
-    <cellStyle name="0movqnq3" xfId="3"/>
-    <cellStyle name="0movqnq3_Alternate" xfId="4"/>
+    <cellStyle name="buyvbukb" xfId="1"/>
+    <cellStyle name="buyvbukb_Alternate" xfId="2"/>
+    <cellStyle name="4t4msty3" xfId="3"/>
+    <cellStyle name="4t4msty3_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
